--- a/src/output/results1.xlsx
+++ b/src/output/results1.xlsx
@@ -346,2922 +346,2922 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>4350.0</v>
+        <v>2769.0</v>
       </c>
       <c r="B1" t="n">
-        <v>1135.0</v>
+        <v>1843.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4614.0</v>
+        <v>3786.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1113.0</v>
+        <v>1373.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4093.0</v>
+        <v>3517.0</v>
       </c>
       <c r="B3" t="n">
-        <v>1267.0</v>
+        <v>1349.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3850.0</v>
+        <v>3250.0</v>
       </c>
       <c r="B4" t="n">
-        <v>1653.0</v>
+        <v>1338.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3561.0</v>
+        <v>3144.0</v>
       </c>
       <c r="B5" t="n">
-        <v>1680.0</v>
+        <v>1390.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3355.0</v>
+        <v>3692.0</v>
       </c>
       <c r="B6" t="n">
-        <v>1736.0</v>
+        <v>1424.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3127.0</v>
+        <v>3473.0</v>
       </c>
       <c r="B7" t="n">
-        <v>1510.0</v>
+        <v>1320.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2963.0</v>
+        <v>2788.0</v>
       </c>
       <c r="B8" t="n">
-        <v>1523.0</v>
+        <v>1309.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2897.0</v>
+        <v>2685.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1426.0</v>
+        <v>1348.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2891.0</v>
+        <v>2546.0</v>
       </c>
       <c r="B10" t="n">
-        <v>1369.0</v>
+        <v>1298.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2770.0</v>
+        <v>2599.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1324.0</v>
+        <v>1169.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2797.0</v>
+        <v>2558.0</v>
       </c>
       <c r="B12" t="n">
-        <v>1184.0</v>
+        <v>1150.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2702.0</v>
+        <v>2946.0</v>
       </c>
       <c r="B13" t="n">
-        <v>1272.0</v>
+        <v>1146.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2705.0</v>
+        <v>2724.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1237.0</v>
+        <v>1108.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2806.0</v>
+        <v>2506.0</v>
       </c>
       <c r="B15" t="n">
-        <v>1220.0</v>
+        <v>1116.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2600.0</v>
+        <v>2381.0</v>
       </c>
       <c r="B16" t="n">
-        <v>1159.0</v>
+        <v>1074.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2561.0</v>
+        <v>2346.0</v>
       </c>
       <c r="B17" t="n">
-        <v>1125.0</v>
+        <v>1099.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2658.0</v>
+        <v>2318.0</v>
       </c>
       <c r="B18" t="n">
-        <v>1182.0</v>
+        <v>977.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2672.0</v>
+        <v>2300.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1093.0</v>
+        <v>1035.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2629.0</v>
+        <v>2731.0</v>
       </c>
       <c r="B20" t="n">
-        <v>1094.0</v>
+        <v>964.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2676.0</v>
+        <v>2577.0</v>
       </c>
       <c r="B21" t="n">
-        <v>1116.0</v>
+        <v>932.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2585.0</v>
+        <v>2298.0</v>
       </c>
       <c r="B22" t="n">
-        <v>1147.0</v>
+        <v>1005.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2621.0</v>
+        <v>2316.0</v>
       </c>
       <c r="B23" t="n">
-        <v>1088.0</v>
+        <v>980.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2505.0</v>
+        <v>2232.0</v>
       </c>
       <c r="B24" t="n">
-        <v>1068.0</v>
+        <v>934.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2498.0</v>
+        <v>2299.0</v>
       </c>
       <c r="B25" t="n">
-        <v>1076.0</v>
+        <v>987.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2440.0</v>
+        <v>2273.0</v>
       </c>
       <c r="B26" t="n">
-        <v>1146.0</v>
+        <v>978.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2642.0</v>
+        <v>2577.0</v>
       </c>
       <c r="B27" t="n">
-        <v>1013.0</v>
+        <v>980.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2524.0</v>
+        <v>2598.0</v>
       </c>
       <c r="B28" t="n">
-        <v>1052.0</v>
+        <v>966.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2521.0</v>
+        <v>2383.0</v>
       </c>
       <c r="B29" t="n">
-        <v>1089.0</v>
+        <v>989.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2520.0</v>
+        <v>2242.0</v>
       </c>
       <c r="B30" t="n">
-        <v>1059.0</v>
+        <v>1008.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2541.0</v>
+        <v>2201.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1047.0</v>
+        <v>971.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3247.0</v>
+        <v>3276.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1079.0</v>
+        <v>933.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3140.0</v>
+        <v>3313.0</v>
       </c>
       <c r="B33" t="n">
-        <v>992.0</v>
+        <v>922.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2980.0</v>
+        <v>3327.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1122.0</v>
+        <v>1098.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3045.0</v>
+        <v>3065.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1305.0</v>
+        <v>1246.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3923.0</v>
+        <v>4469.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1241.0</v>
+        <v>1257.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3820.0</v>
+        <v>4492.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1270.0</v>
+        <v>1359.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4264.0</v>
+        <v>5110.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1453.0</v>
+        <v>1462.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4829.0</v>
+        <v>5665.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1651.0</v>
+        <v>1842.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5260.0</v>
+        <v>6118.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1684.0</v>
+        <v>2026.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4743.0</v>
+        <v>6166.0</v>
       </c>
       <c r="B41" t="n">
-        <v>1872.0</v>
+        <v>2272.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4605.0</v>
+        <v>5718.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2087.0</v>
+        <v>2511.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6403.0</v>
+        <v>7652.0</v>
       </c>
       <c r="B43" t="n">
-        <v>2210.0</v>
+        <v>2540.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5817.0</v>
+        <v>7234.0</v>
       </c>
       <c r="B44" t="n">
-        <v>2233.0</v>
+        <v>2573.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6289.0</v>
+        <v>8105.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2317.0</v>
+        <v>2939.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7038.0</v>
+        <v>8752.0</v>
       </c>
       <c r="B46" t="n">
-        <v>2570.0</v>
+        <v>3140.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>7447.0</v>
+        <v>9207.0</v>
       </c>
       <c r="B47" t="n">
-        <v>2675.0</v>
+        <v>3394.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6595.0</v>
+        <v>9684.0</v>
       </c>
       <c r="B48" t="n">
-        <v>2869.0</v>
+        <v>3605.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6225.0</v>
+        <v>8865.0</v>
       </c>
       <c r="B49" t="n">
-        <v>3031.0</v>
+        <v>3868.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>8770.0</v>
+        <v>11128.0</v>
       </c>
       <c r="B50" t="n">
-        <v>3184.0</v>
+        <v>3993.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>7984.0</v>
+        <v>10404.0</v>
       </c>
       <c r="B51" t="n">
-        <v>3078.0</v>
+        <v>4103.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>8401.0</v>
+        <v>11249.0</v>
       </c>
       <c r="B52" t="n">
-        <v>3205.0</v>
+        <v>4335.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>9143.0</v>
+        <v>12135.0</v>
       </c>
       <c r="B53" t="n">
-        <v>3620.0</v>
+        <v>4571.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>9754.0</v>
+        <v>12905.0</v>
       </c>
       <c r="B54" t="n">
-        <v>3643.0</v>
+        <v>4841.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>8507.0</v>
+        <v>13371.0</v>
       </c>
       <c r="B55" t="n">
-        <v>3718.0</v>
+        <v>5235.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>7971.0</v>
+        <v>12095.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4008.0</v>
+        <v>5400.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>11001.0</v>
+        <v>15159.0</v>
       </c>
       <c r="B57" t="n">
-        <v>4194.0</v>
+        <v>5701.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>9888.0</v>
+        <v>13858.0</v>
       </c>
       <c r="B58" t="n">
-        <v>4047.0</v>
+        <v>5701.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>10660.0</v>
+        <v>14587.0</v>
       </c>
       <c r="B59" t="n">
-        <v>4254.0</v>
+        <v>5932.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>11165.0</v>
+        <v>15773.0</v>
       </c>
       <c r="B60" t="n">
-        <v>4516.0</v>
+        <v>6341.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>11875.0</v>
+        <v>16402.0</v>
       </c>
       <c r="B61" t="n">
-        <v>4527.0</v>
+        <v>6497.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>10580.0</v>
+        <v>17019.0</v>
       </c>
       <c r="B62" t="n">
-        <v>4755.0</v>
+        <v>6714.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>9691.0</v>
+        <v>15527.0</v>
       </c>
       <c r="B63" t="n">
-        <v>5168.0</v>
+        <v>7233.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>13190.0</v>
+        <v>18367.0</v>
       </c>
       <c r="B64" t="n">
-        <v>5185.0</v>
+        <v>7386.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>12026.0</v>
+        <v>16742.0</v>
       </c>
       <c r="B65" t="n">
-        <v>4956.0</v>
+        <v>7134.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>12129.0</v>
+        <v>17686.0</v>
       </c>
       <c r="B66" t="n">
-        <v>5021.0</v>
+        <v>7236.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>13337.0</v>
+        <v>18647.0</v>
       </c>
       <c r="B67" t="n">
-        <v>5290.0</v>
+        <v>7756.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>13640.0</v>
+        <v>19384.0</v>
       </c>
       <c r="B68" t="n">
-        <v>5366.0</v>
+        <v>8179.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>11831.0</v>
+        <v>20013.0</v>
       </c>
       <c r="B69" t="n">
-        <v>5569.0</v>
+        <v>8173.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>10856.0</v>
+        <v>17924.0</v>
       </c>
       <c r="B70" t="n">
-        <v>5994.0</v>
+        <v>8514.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>14978.0</v>
+        <v>20998.0</v>
       </c>
       <c r="B71" t="n">
-        <v>5965.0</v>
+        <v>8498.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>13307.0</v>
+        <v>18731.0</v>
       </c>
       <c r="B72" t="n">
-        <v>5554.0</v>
+        <v>8416.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>13862.0</v>
+        <v>19567.0</v>
       </c>
       <c r="B73" t="n">
-        <v>5797.0</v>
+        <v>8452.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>14774.0</v>
+        <v>20422.0</v>
       </c>
       <c r="B74" t="n">
-        <v>6122.0</v>
+        <v>8701.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>14900.0</v>
+        <v>20458.0</v>
       </c>
       <c r="B75" t="n">
-        <v>6008.0</v>
+        <v>8940.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>13061.0</v>
+        <v>21478.0</v>
       </c>
       <c r="B76" t="n">
-        <v>6155.0</v>
+        <v>8880.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>11946.0</v>
+        <v>19234.0</v>
       </c>
       <c r="B77" t="n">
-        <v>6485.0</v>
+        <v>9336.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>16269.0</v>
+        <v>21629.0</v>
       </c>
       <c r="B78" t="n">
-        <v>6744.0</v>
+        <v>9100.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>14411.0</v>
+        <v>19433.0</v>
       </c>
       <c r="B79" t="n">
-        <v>6397.0</v>
+        <v>9007.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>14693.0</v>
+        <v>20050.0</v>
       </c>
       <c r="B80" t="n">
-        <v>6363.0</v>
+        <v>8915.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>15696.0</v>
+        <v>20611.0</v>
       </c>
       <c r="B81" t="n">
-        <v>6713.0</v>
+        <v>9024.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>15961.0</v>
+        <v>20731.0</v>
       </c>
       <c r="B82" t="n">
-        <v>6427.0</v>
+        <v>9049.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>13668.0</v>
+        <v>21710.0</v>
       </c>
       <c r="B83" t="n">
-        <v>6435.0</v>
+        <v>9072.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>12257.0</v>
+        <v>19186.0</v>
       </c>
       <c r="B84" t="n">
-        <v>7058.0</v>
+        <v>9345.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>16930.0</v>
+        <v>21659.0</v>
       </c>
       <c r="B85" t="n">
-        <v>7198.0</v>
+        <v>9331.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>14841.0</v>
+        <v>19092.0</v>
       </c>
       <c r="B86" t="n">
-        <v>6693.0</v>
+        <v>8891.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>14794.0</v>
+        <v>19462.0</v>
       </c>
       <c r="B87" t="n">
-        <v>6628.0</v>
+        <v>8854.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>15843.0</v>
+        <v>20072.0</v>
       </c>
       <c r="B88" t="n">
-        <v>6900.0</v>
+        <v>9006.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>16351.0</v>
+        <v>19998.0</v>
       </c>
       <c r="B89" t="n">
-        <v>6698.0</v>
+        <v>8973.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>13692.0</v>
+        <v>20660.0</v>
       </c>
       <c r="B90" t="n">
-        <v>6598.0</v>
+        <v>8738.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>12518.0</v>
+        <v>18400.0</v>
       </c>
       <c r="B91" t="n">
-        <v>6980.0</v>
+        <v>8922.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>16987.0</v>
+        <v>20317.0</v>
       </c>
       <c r="B92" t="n">
-        <v>7308.0</v>
+        <v>8844.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>15123.0</v>
+        <v>18163.0</v>
       </c>
       <c r="B93" t="n">
-        <v>6730.0</v>
+        <v>8722.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>15447.0</v>
+        <v>18214.0</v>
       </c>
       <c r="B94" t="n">
-        <v>6787.0</v>
+        <v>8326.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>16086.0</v>
+        <v>18508.0</v>
       </c>
       <c r="B95" t="n">
-        <v>7021.0</v>
+        <v>8397.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>16256.0</v>
+        <v>18622.0</v>
       </c>
       <c r="B96" t="n">
-        <v>6906.0</v>
+        <v>8291.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>11557.0</v>
+        <v>17295.0</v>
       </c>
       <c r="B97" t="n">
-        <v>6726.0</v>
+        <v>8195.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>12612.0</v>
+        <v>16795.0</v>
       </c>
       <c r="B98" t="n">
-        <v>7364.0</v>
+        <v>8130.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>13411.0</v>
+        <v>13811.0</v>
       </c>
       <c r="B99" t="n">
-        <v>7061.0</v>
+        <v>7999.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>11720.0</v>
+        <v>12570.0</v>
       </c>
       <c r="B100" t="n">
-        <v>6363.0</v>
+        <v>7541.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>11113.0</v>
+        <v>12199.0</v>
       </c>
       <c r="B101" t="n">
-        <v>6127.0</v>
+        <v>7103.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>10857.0</v>
+        <v>11925.0</v>
       </c>
       <c r="B102" t="n">
-        <v>5954.0</v>
+        <v>6317.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>10614.0</v>
+        <v>11136.0</v>
       </c>
       <c r="B103" t="n">
-        <v>5384.0</v>
+        <v>5667.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>9193.0</v>
+        <v>13167.0</v>
       </c>
       <c r="B104" t="n">
-        <v>4911.0</v>
+        <v>5340.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>8394.0</v>
+        <v>11069.0</v>
       </c>
       <c r="B105" t="n">
-        <v>5059.0</v>
+        <v>5290.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>11334.0</v>
+        <v>12491.0</v>
       </c>
       <c r="B106" t="n">
-        <v>4953.0</v>
+        <v>4986.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>10060.0</v>
+        <v>11549.0</v>
       </c>
       <c r="B107" t="n">
-        <v>4631.0</v>
+        <v>5059.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>10502.0</v>
+        <v>11833.0</v>
       </c>
       <c r="B108" t="n">
-        <v>4536.0</v>
+        <v>5115.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>11145.0</v>
+        <v>12315.0</v>
       </c>
       <c r="B109" t="n">
-        <v>4692.0</v>
+        <v>5091.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>11689.0</v>
+        <v>12641.0</v>
       </c>
       <c r="B110" t="n">
-        <v>4653.0</v>
+        <v>5197.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>9836.0</v>
+        <v>13109.0</v>
       </c>
       <c r="B111" t="n">
-        <v>4704.0</v>
+        <v>5264.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>9168.0</v>
+        <v>11252.0</v>
       </c>
       <c r="B112" t="n">
-        <v>5206.0</v>
+        <v>5553.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>13143.0</v>
+        <v>14040.0</v>
       </c>
       <c r="B113" t="n">
-        <v>5290.0</v>
+        <v>5580.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>11906.0</v>
+        <v>12572.0</v>
       </c>
       <c r="B114" t="n">
-        <v>5118.0</v>
+        <v>5375.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>12228.0</v>
+        <v>12841.0</v>
       </c>
       <c r="B115" t="n">
-        <v>5107.0</v>
+        <v>5472.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>12862.0</v>
+        <v>13647.0</v>
       </c>
       <c r="B116" t="n">
-        <v>5365.0</v>
+        <v>5482.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>13585.0</v>
+        <v>13500.0</v>
       </c>
       <c r="B117" t="n">
-        <v>5230.0</v>
+        <v>5559.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>11896.0</v>
+        <v>14174.0</v>
       </c>
       <c r="B118" t="n">
-        <v>5427.0</v>
+        <v>5722.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>10656.0</v>
+        <v>12463.0</v>
       </c>
       <c r="B119" t="n">
-        <v>5904.0</v>
+        <v>6036.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>15232.0</v>
+        <v>14966.0</v>
       </c>
       <c r="B120" t="n">
-        <v>6176.0</v>
+        <v>6033.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>13839.0</v>
+        <v>13642.0</v>
       </c>
       <c r="B121" t="n">
-        <v>5947.0</v>
+        <v>5925.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>14315.0</v>
+        <v>13910.0</v>
       </c>
       <c r="B122" t="n">
-        <v>6029.0</v>
+        <v>5898.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>15393.0</v>
+        <v>14714.0</v>
       </c>
       <c r="B123" t="n">
-        <v>6233.0</v>
+        <v>6112.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>16266.0</v>
+        <v>15009.0</v>
       </c>
       <c r="B124" t="n">
-        <v>6345.0</v>
+        <v>6061.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>14335.0</v>
+        <v>15516.0</v>
       </c>
       <c r="B125" t="n">
-        <v>6602.0</v>
+        <v>6222.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>12848.0</v>
+        <v>13697.0</v>
       </c>
       <c r="B126" t="n">
-        <v>7060.0</v>
+        <v>6508.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>18145.0</v>
+        <v>16738.0</v>
       </c>
       <c r="B127" t="n">
-        <v>7510.0</v>
+        <v>6604.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>16380.0</v>
+        <v>15198.0</v>
       </c>
       <c r="B128" t="n">
-        <v>7260.0</v>
+        <v>6488.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>17492.0</v>
+        <v>15599.0</v>
       </c>
       <c r="B129" t="n">
-        <v>7225.0</v>
+        <v>6520.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>18565.0</v>
+        <v>16138.0</v>
       </c>
       <c r="B130" t="n">
-        <v>7610.0</v>
+        <v>6713.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>19888.0</v>
+        <v>16640.0</v>
       </c>
       <c r="B131" t="n">
-        <v>7855.0</v>
+        <v>6873.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>17498.0</v>
+        <v>16867.0</v>
       </c>
       <c r="B132" t="n">
-        <v>8301.0</v>
+        <v>6910.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>15847.0</v>
+        <v>15240.0</v>
       </c>
       <c r="B133" t="n">
-        <v>8888.0</v>
+        <v>7250.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>21717.0</v>
+        <v>18149.0</v>
       </c>
       <c r="B134" t="n">
-        <v>8917.0</v>
+        <v>7397.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>19580.0</v>
+        <v>16605.0</v>
       </c>
       <c r="B135" t="n">
-        <v>8716.0</v>
+        <v>7234.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>20400.0</v>
+        <v>17153.0</v>
       </c>
       <c r="B136" t="n">
-        <v>8656.0</v>
+        <v>7428.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>21790.0</v>
+        <v>17860.0</v>
       </c>
       <c r="B137" t="n">
-        <v>8971.0</v>
+        <v>7402.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>23452.0</v>
+        <v>18252.0</v>
       </c>
       <c r="B138" t="n">
-        <v>9227.0</v>
+        <v>7567.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>20568.0</v>
+        <v>18617.0</v>
       </c>
       <c r="B139" t="n">
-        <v>9898.0</v>
+        <v>7731.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>18599.0</v>
+        <v>16635.0</v>
       </c>
       <c r="B140" t="n">
-        <v>10776.0</v>
+        <v>8245.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>24767.0</v>
+        <v>20132.0</v>
       </c>
       <c r="B141" t="n">
-        <v>10681.0</v>
+        <v>8220.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>22654.0</v>
+        <v>18284.0</v>
       </c>
       <c r="B142" t="n">
-        <v>10356.0</v>
+        <v>8133.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>23686.0</v>
+        <v>19006.0</v>
       </c>
       <c r="B143" t="n">
-        <v>10171.0</v>
+        <v>8130.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>24866.0</v>
+        <v>19344.0</v>
       </c>
       <c r="B144" t="n">
-        <v>10403.0</v>
+        <v>8313.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>26361.0</v>
+        <v>19947.0</v>
       </c>
       <c r="B145" t="n">
-        <v>10870.0</v>
+        <v>8407.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>23472.0</v>
+        <v>20485.0</v>
       </c>
       <c r="B146" t="n">
-        <v>11378.0</v>
+        <v>8647.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>20689.0</v>
+        <v>18320.0</v>
       </c>
       <c r="B147" t="n">
-        <v>12137.0</v>
+        <v>9097.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>27584.0</v>
+        <v>21928.0</v>
       </c>
       <c r="B148" t="n">
-        <v>12209.0</v>
+        <v>9267.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>24373.0</v>
+        <v>19934.0</v>
       </c>
       <c r="B149" t="n">
-        <v>11590.0</v>
+        <v>9171.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>20664.0</v>
+        <v>15514.0</v>
       </c>
       <c r="B150" t="n">
-        <v>11497.0</v>
+        <v>9140.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>20951.0</v>
+        <v>15464.0</v>
       </c>
       <c r="B151" t="n">
-        <v>10884.0</v>
+        <v>8916.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>21004.0</v>
+        <v>15255.0</v>
       </c>
       <c r="B152" t="n">
-        <v>10697.0</v>
+        <v>8843.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>16308.0</v>
+        <v>17244.0</v>
       </c>
       <c r="B153" t="n">
-        <v>10561.0</v>
+        <v>8347.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>15811.0</v>
+        <v>15735.0</v>
       </c>
       <c r="B154" t="n">
-        <v>10379.0</v>
+        <v>7780.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>12675.0</v>
+        <v>13742.0</v>
       </c>
       <c r="B155" t="n">
-        <v>9359.0</v>
+        <v>7747.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>10222.0</v>
+        <v>11792.0</v>
       </c>
       <c r="B156" t="n">
-        <v>8068.0</v>
+        <v>7107.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>13437.0</v>
+        <v>14967.0</v>
       </c>
       <c r="B157" t="n">
-        <v>6685.0</v>
+        <v>6508.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>11288.0</v>
+        <v>12895.0</v>
       </c>
       <c r="B158" t="n">
-        <v>5903.0</v>
+        <v>5981.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>9913.0</v>
+        <v>10446.0</v>
       </c>
       <c r="B159" t="n">
-        <v>5694.0</v>
+        <v>5942.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>8557.0</v>
+        <v>10215.0</v>
       </c>
       <c r="B160" t="n">
-        <v>5516.0</v>
+        <v>5963.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>8556.0</v>
+        <v>10058.0</v>
       </c>
       <c r="B161" t="n">
-        <v>5299.0</v>
+        <v>5817.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>10460.0</v>
+        <v>11561.0</v>
       </c>
       <c r="B162" t="n">
-        <v>5378.0</v>
+        <v>5649.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>11246.0</v>
+        <v>13362.0</v>
       </c>
       <c r="B163" t="n">
-        <v>5183.0</v>
+        <v>5459.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>11036.0</v>
+        <v>13122.0</v>
       </c>
       <c r="B164" t="n">
-        <v>4865.0</v>
+        <v>5377.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>11579.0</v>
+        <v>13536.0</v>
       </c>
       <c r="B165" t="n">
-        <v>4392.0</v>
+        <v>5283.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>12612.0</v>
+        <v>14763.0</v>
       </c>
       <c r="B166" t="n">
-        <v>4558.0</v>
+        <v>5555.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>11189.0</v>
+        <v>14976.0</v>
       </c>
       <c r="B167" t="n">
-        <v>5133.0</v>
+        <v>5950.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>10731.0</v>
+        <v>13509.0</v>
       </c>
       <c r="B168" t="n">
-        <v>5745.0</v>
+        <v>6620.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>15030.0</v>
+        <v>18087.0</v>
       </c>
       <c r="B169" t="n">
-        <v>5754.0</v>
+        <v>7009.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>13933.0</v>
+        <v>16528.0</v>
       </c>
       <c r="B170" t="n">
-        <v>5709.0</v>
+        <v>7129.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>14835.0</v>
+        <v>17616.0</v>
       </c>
       <c r="B171" t="n">
-        <v>5707.0</v>
+        <v>7363.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>15817.0</v>
+        <v>18573.0</v>
       </c>
       <c r="B172" t="n">
-        <v>5851.0</v>
+        <v>7467.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>17208.0</v>
+        <v>19903.0</v>
       </c>
       <c r="B173" t="n">
-        <v>6245.0</v>
+        <v>8026.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>15504.0</v>
+        <v>21054.0</v>
       </c>
       <c r="B174" t="n">
-        <v>7254.0</v>
+        <v>8734.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>14304.0</v>
+        <v>19209.0</v>
       </c>
       <c r="B175" t="n">
-        <v>7615.0</v>
+        <v>9161.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>19967.0</v>
+        <v>22491.0</v>
       </c>
       <c r="B176" t="n">
-        <v>7653.0</v>
+        <v>9514.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>17898.0</v>
+        <v>21478.0</v>
       </c>
       <c r="B177" t="n">
-        <v>7884.0</v>
+        <v>9846.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>19603.0</v>
+        <v>22674.0</v>
       </c>
       <c r="B178" t="n">
-        <v>7901.0</v>
+        <v>9979.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>20722.0</v>
+        <v>23873.0</v>
       </c>
       <c r="B179" t="n">
-        <v>7663.0</v>
+        <v>10242.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>22989.0</v>
+        <v>25211.0</v>
       </c>
       <c r="B180" t="n">
-        <v>8429.0</v>
+        <v>10958.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>20672.0</v>
+        <v>27745.0</v>
       </c>
       <c r="B181" t="n">
-        <v>9447.0</v>
+        <v>11819.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>18686.0</v>
+        <v>24877.0</v>
       </c>
       <c r="B182" t="n">
-        <v>10347.0</v>
+        <v>12107.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>25621.0</v>
+        <v>28813.0</v>
       </c>
       <c r="B183" t="n">
-        <v>10343.0</v>
+        <v>12654.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>23256.0</v>
+        <v>26254.0</v>
       </c>
       <c r="B184" t="n">
-        <v>10131.0</v>
+        <v>12977.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>25025.0</v>
+        <v>28467.0</v>
       </c>
       <c r="B185" t="n">
-        <v>10068.0</v>
+        <v>12995.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>26700.0</v>
+        <v>29248.0</v>
       </c>
       <c r="B186" t="n">
-        <v>10306.0</v>
+        <v>13196.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>29038.0</v>
+        <v>30607.0</v>
       </c>
       <c r="B187" t="n">
-        <v>11182.0</v>
+        <v>13959.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>26134.0</v>
+        <v>33441.0</v>
       </c>
       <c r="B188" t="n">
-        <v>12499.0</v>
+        <v>14500.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>23896.0</v>
+        <v>30496.0</v>
       </c>
       <c r="B189" t="n">
-        <v>13245.0</v>
+        <v>14903.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>31128.0</v>
+        <v>32910.0</v>
       </c>
       <c r="B190" t="n">
-        <v>13070.0</v>
+        <v>15408.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>28030.0</v>
+        <v>30104.0</v>
       </c>
       <c r="B191" t="n">
-        <v>12724.0</v>
+        <v>15383.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>29707.0</v>
+        <v>31569.0</v>
       </c>
       <c r="B192" t="n">
-        <v>12651.0</v>
+        <v>15268.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>30823.0</v>
+        <v>32143.0</v>
       </c>
       <c r="B193" t="n">
-        <v>12421.0</v>
+        <v>15252.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>33009.0</v>
+        <v>32985.0</v>
       </c>
       <c r="B194" t="n">
-        <v>13384.0</v>
+        <v>15993.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>29084.0</v>
+        <v>35516.0</v>
       </c>
       <c r="B195" t="n">
-        <v>14683.0</v>
+        <v>16102.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>25968.0</v>
+        <v>32383.0</v>
       </c>
       <c r="B196" t="n">
-        <v>15256.0</v>
+        <v>16255.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>34074.0</v>
+        <v>33266.0</v>
       </c>
       <c r="B197" t="n">
-        <v>14564.0</v>
+        <v>16405.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>30040.0</v>
+        <v>30653.0</v>
       </c>
       <c r="B198" t="n">
-        <v>14480.0</v>
+        <v>16479.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>31165.0</v>
+        <v>31309.0</v>
       </c>
       <c r="B199" t="n">
-        <v>14145.0</v>
+        <v>16063.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>31774.0</v>
+        <v>31611.0</v>
       </c>
       <c r="B200" t="n">
-        <v>13247.0</v>
+        <v>15695.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>33691.0</v>
+        <v>32442.0</v>
       </c>
       <c r="B201" t="n">
-        <v>14081.0</v>
+        <v>16036.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>29392.0</v>
+        <v>35086.0</v>
       </c>
       <c r="B202" t="n">
-        <v>15338.0</v>
+        <v>16353.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>26150.0</v>
+        <v>31789.0</v>
       </c>
       <c r="B203" t="n">
-        <v>15639.0</v>
+        <v>16387.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>33352.0</v>
+        <v>32091.0</v>
       </c>
       <c r="B204" t="n">
-        <v>14924.0</v>
+        <v>16077.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>29161.0</v>
+        <v>28803.0</v>
       </c>
       <c r="B205" t="n">
-        <v>14246.0</v>
+        <v>15961.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>30047.0</v>
+        <v>29471.0</v>
       </c>
       <c r="B206" t="n">
-        <v>13867.0</v>
+        <v>15386.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>21646.0</v>
+        <v>27880.0</v>
       </c>
       <c r="B207" t="n">
-        <v>13271.0</v>
+        <v>14881.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>30472.0</v>
+        <v>30296.0</v>
       </c>
       <c r="B208" t="n">
-        <v>12953.0</v>
+        <v>14371.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>22737.0</v>
+        <v>27568.0</v>
       </c>
       <c r="B209" t="n">
-        <v>13246.0</v>
+        <v>14559.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>20202.0</v>
+        <v>24261.0</v>
       </c>
       <c r="B210" t="n">
-        <v>13597.0</v>
+        <v>14130.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>26260.0</v>
+        <v>26918.0</v>
       </c>
       <c r="B211" t="n">
-        <v>12341.0</v>
+        <v>13378.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>22423.0</v>
+        <v>23819.0</v>
       </c>
       <c r="B212" t="n">
-        <v>11016.0</v>
+        <v>13015.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>23483.0</v>
+        <v>24919.0</v>
       </c>
       <c r="B213" t="n">
-        <v>10824.0</v>
+        <v>12355.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>23897.0</v>
+        <v>25092.0</v>
       </c>
       <c r="B214" t="n">
-        <v>10420.0</v>
+        <v>12333.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>24818.0</v>
+        <v>24983.0</v>
       </c>
       <c r="B215" t="n">
-        <v>10863.0</v>
+        <v>12640.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>21509.0</v>
+        <v>27097.0</v>
       </c>
       <c r="B216" t="n">
-        <v>11306.0</v>
+        <v>12607.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>19862.0</v>
+        <v>24212.0</v>
       </c>
       <c r="B217" t="n">
-        <v>11739.0</v>
+        <v>12763.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>25154.0</v>
+        <v>25093.0</v>
       </c>
       <c r="B218" t="n">
-        <v>11156.0</v>
+        <v>12691.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>22531.0</v>
+        <v>22566.0</v>
       </c>
       <c r="B219" t="n">
-        <v>10698.0</v>
+        <v>12268.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>15925.0</v>
+        <v>20671.0</v>
       </c>
       <c r="B220" t="n">
-        <v>10250.0</v>
+        <v>11854.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>21635.0</v>
+        <v>23216.0</v>
       </c>
       <c r="B221" t="n">
-        <v>9338.0</v>
+        <v>10850.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>20148.0</v>
+        <v>20483.0</v>
       </c>
       <c r="B222" t="n">
-        <v>9304.0</v>
+        <v>10620.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>16840.0</v>
+        <v>21018.0</v>
       </c>
       <c r="B223" t="n">
-        <v>9714.0</v>
+        <v>10834.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>15101.0</v>
+        <v>18365.0</v>
       </c>
       <c r="B224" t="n">
-        <v>9531.0</v>
+        <v>10464.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>20100.0</v>
+        <v>20792.0</v>
       </c>
       <c r="B225" t="n">
-        <v>9014.0</v>
+        <v>10014.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>18272.0</v>
+        <v>18803.0</v>
       </c>
       <c r="B226" t="n">
-        <v>8743.0</v>
+        <v>9842.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>18202.0</v>
+        <v>18996.0</v>
       </c>
       <c r="B227" t="n">
-        <v>8530.0</v>
+        <v>9554.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>18608.0</v>
+        <v>19189.0</v>
       </c>
       <c r="B228" t="n">
-        <v>8029.0</v>
+        <v>9371.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>18908.0</v>
+        <v>19499.0</v>
       </c>
       <c r="B229" t="n">
-        <v>8169.0</v>
+        <v>9429.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>16345.0</v>
+        <v>20301.0</v>
       </c>
       <c r="B230" t="n">
-        <v>8556.0</v>
+        <v>9905.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>15031.0</v>
+        <v>18054.0</v>
       </c>
       <c r="B231" t="n">
-        <v>8944.0</v>
+        <v>9726.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>19700.0</v>
+        <v>19360.0</v>
       </c>
       <c r="B232" t="n">
-        <v>8683.0</v>
+        <v>9529.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>17905.0</v>
+        <v>17514.0</v>
       </c>
       <c r="B233" t="n">
-        <v>8331.0</v>
+        <v>9397.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>14470.0</v>
+        <v>13393.0</v>
       </c>
       <c r="B234" t="n">
-        <v>7916.0</v>
+        <v>9001.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>14271.0</v>
+        <v>12923.0</v>
       </c>
       <c r="B235" t="n">
-        <v>7409.0</v>
+        <v>8128.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>13866.0</v>
+        <v>12363.0</v>
       </c>
       <c r="B236" t="n">
-        <v>7410.0</v>
+        <v>7559.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>11364.0</v>
+        <v>13750.0</v>
       </c>
       <c r="B237" t="n">
-        <v>7704.0</v>
+        <v>7132.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>11454.0</v>
+        <v>12247.0</v>
       </c>
       <c r="B238" t="n">
-        <v>7579.0</v>
+        <v>6661.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>12200.0</v>
+        <v>10600.0</v>
       </c>
       <c r="B239" t="n">
-        <v>6745.0</v>
+        <v>6499.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>10344.0</v>
+        <v>9157.0</v>
       </c>
       <c r="B240" t="n">
-        <v>6046.0</v>
+        <v>5815.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>9703.0</v>
+        <v>8973.0</v>
       </c>
       <c r="B241" t="n">
-        <v>5406.0</v>
+        <v>5171.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>9382.0</v>
+        <v>8602.0</v>
       </c>
       <c r="B242" t="n">
-        <v>4996.0</v>
+        <v>4875.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>9251.0</v>
+        <v>8349.0</v>
       </c>
       <c r="B243" t="n">
-        <v>5014.0</v>
+        <v>4586.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>7682.0</v>
+        <v>8899.0</v>
       </c>
       <c r="B244" t="n">
-        <v>5128.0</v>
+        <v>4400.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>7553.0</v>
+        <v>7758.0</v>
       </c>
       <c r="B245" t="n">
-        <v>4922.0</v>
+        <v>4202.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>9950.0</v>
+        <v>9133.0</v>
       </c>
       <c r="B246" t="n">
-        <v>4454.0</v>
+        <v>4067.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>9106.0</v>
+        <v>8289.0</v>
       </c>
       <c r="B247" t="n">
-        <v>4251.0</v>
+        <v>3855.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>8821.0</v>
+        <v>8375.0</v>
       </c>
       <c r="B248" t="n">
-        <v>3934.0</v>
+        <v>3792.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>8933.0</v>
+        <v>8637.0</v>
       </c>
       <c r="B249" t="n">
-        <v>3855.0</v>
+        <v>3697.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>9372.0</v>
+        <v>9006.0</v>
       </c>
       <c r="B250" t="n">
-        <v>3842.0</v>
+        <v>3911.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>7872.0</v>
+        <v>8900.0</v>
       </c>
       <c r="B251" t="n">
-        <v>4235.0</v>
+        <v>4150.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>7796.0</v>
+        <v>7963.0</v>
       </c>
       <c r="B252" t="n">
-        <v>4359.0</v>
+        <v>4178.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>10651.0</v>
+        <v>10010.0</v>
       </c>
       <c r="B253" t="n">
-        <v>4394.0</v>
+        <v>4151.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>9734.0</v>
+        <v>9088.0</v>
       </c>
       <c r="B254" t="n">
-        <v>4235.0</v>
+        <v>4034.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>9408.0</v>
+        <v>9309.0</v>
       </c>
       <c r="B255" t="n">
-        <v>4080.0</v>
+        <v>3998.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>9800.0</v>
+        <v>9346.0</v>
       </c>
       <c r="B256" t="n">
-        <v>3874.0</v>
+        <v>4086.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>10260.0</v>
+        <v>9965.0</v>
       </c>
       <c r="B257" t="n">
-        <v>4075.0</v>
+        <v>4142.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>8764.0</v>
+        <v>9821.0</v>
       </c>
       <c r="B258" t="n">
-        <v>4476.0</v>
+        <v>4354.0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>8089.0</v>
+        <v>8429.0</v>
       </c>
       <c r="B259" t="n">
-        <v>4735.0</v>
+        <v>4529.0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>11232.0</v>
+        <v>10492.0</v>
       </c>
       <c r="B260" t="n">
-        <v>4758.0</v>
+        <v>4527.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>10275.0</v>
+        <v>9808.0</v>
       </c>
       <c r="B261" t="n">
-        <v>4574.0</v>
+        <v>4468.0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>10310.0</v>
+        <v>9981.0</v>
       </c>
       <c r="B262" t="n">
-        <v>4359.0</v>
+        <v>4483.0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>10353.0</v>
+        <v>10148.0</v>
       </c>
       <c r="B263" t="n">
-        <v>4311.0</v>
+        <v>4295.0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>10851.0</v>
+        <v>10416.0</v>
       </c>
       <c r="B264" t="n">
-        <v>4357.0</v>
+        <v>4455.0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>9308.0</v>
+        <v>10406.0</v>
       </c>
       <c r="B265" t="n">
-        <v>4747.0</v>
+        <v>4569.0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>8604.0</v>
+        <v>9111.0</v>
       </c>
       <c r="B266" t="n">
-        <v>5145.0</v>
+        <v>4805.0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>11888.0</v>
+        <v>11178.0</v>
       </c>
       <c r="B267" t="n">
-        <v>4944.0</v>
+        <v>4754.0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>10848.0</v>
+        <v>10350.0</v>
       </c>
       <c r="B268" t="n">
-        <v>4738.0</v>
+        <v>4848.0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>10643.0</v>
+        <v>10416.0</v>
       </c>
       <c r="B269" t="n">
-        <v>4598.0</v>
+        <v>4732.0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>10902.0</v>
+        <v>10479.0</v>
       </c>
       <c r="B270" t="n">
-        <v>4627.0</v>
+        <v>4614.0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>11267.0</v>
+        <v>10787.0</v>
       </c>
       <c r="B271" t="n">
-        <v>4711.0</v>
+        <v>4769.0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>9595.0</v>
+        <v>10877.0</v>
       </c>
       <c r="B272" t="n">
-        <v>4977.0</v>
+        <v>4872.0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>8919.0</v>
+        <v>9704.0</v>
       </c>
       <c r="B273" t="n">
-        <v>5204.0</v>
+        <v>5111.0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>8476.0</v>
+        <v>9049.0</v>
       </c>
       <c r="B274" t="n">
-        <v>5075.0</v>
+        <v>4902.0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>11228.0</v>
+        <v>11038.0</v>
       </c>
       <c r="B275" t="n">
-        <v>4973.0</v>
+        <v>4815.0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>9788.0</v>
+        <v>9757.0</v>
       </c>
       <c r="B276" t="n">
-        <v>4573.0</v>
+        <v>4598.0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>9679.0</v>
+        <v>10060.0</v>
       </c>
       <c r="B277" t="n">
-        <v>4346.0</v>
+        <v>4463.0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>9869.0</v>
+        <v>10387.0</v>
       </c>
       <c r="B278" t="n">
-        <v>4253.0</v>
+        <v>4403.0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>8374.0</v>
+        <v>9750.0</v>
       </c>
       <c r="B279" t="n">
-        <v>4334.0</v>
+        <v>4546.0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>7558.0</v>
+        <v>8411.0</v>
       </c>
       <c r="B280" t="n">
-        <v>4538.0</v>
+        <v>4717.0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>10881.0</v>
+        <v>11199.0</v>
       </c>
       <c r="B281" t="n">
-        <v>4612.0</v>
+        <v>4685.0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>6914.0</v>
+        <v>8236.0</v>
       </c>
       <c r="B282" t="n">
-        <v>4490.0</v>
+        <v>4440.0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>9784.0</v>
+        <v>10667.0</v>
       </c>
       <c r="B283" t="n">
-        <v>4283.0</v>
+        <v>4444.0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>9183.0</v>
+        <v>9923.0</v>
       </c>
       <c r="B284" t="n">
-        <v>4189.0</v>
+        <v>4412.0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>9167.0</v>
+        <v>10212.0</v>
       </c>
       <c r="B285" t="n">
-        <v>3988.0</v>
+        <v>4323.0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>7738.0</v>
+        <v>9796.0</v>
       </c>
       <c r="B286" t="n">
-        <v>3980.0</v>
+        <v>4404.0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>7185.0</v>
+        <v>8729.0</v>
       </c>
       <c r="B287" t="n">
-        <v>4205.0</v>
+        <v>4586.0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>9877.0</v>
+        <v>10810.0</v>
       </c>
       <c r="B288" t="n">
-        <v>4188.0</v>
+        <v>4578.0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>8917.0</v>
+        <v>9961.0</v>
       </c>
       <c r="B289" t="n">
-        <v>4053.0</v>
+        <v>4405.0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>8943.0</v>
+        <v>10224.0</v>
       </c>
       <c r="B290" t="n">
-        <v>3950.0</v>
+        <v>4643.0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>9435.0</v>
+        <v>10493.0</v>
       </c>
       <c r="B291" t="n">
-        <v>3983.0</v>
+        <v>4467.0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>9642.0</v>
+        <v>10996.0</v>
       </c>
       <c r="B292" t="n">
-        <v>4005.0</v>
+        <v>4525.0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>8325.0</v>
+        <v>10745.0</v>
       </c>
       <c r="B293" t="n">
-        <v>4156.0</v>
+        <v>4789.0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>7505.0</v>
+        <v>9855.0</v>
       </c>
       <c r="B294" t="n">
-        <v>4472.0</v>
+        <v>4937.0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>10527.0</v>
+        <v>11499.0</v>
       </c>
       <c r="B295" t="n">
-        <v>4462.0</v>
+        <v>4873.0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>9551.0</v>
+        <v>10644.0</v>
       </c>
       <c r="B296" t="n">
-        <v>4129.0</v>
+        <v>4890.0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>9733.0</v>
+        <v>11054.0</v>
       </c>
       <c r="B297" t="n">
-        <v>4116.0</v>
+        <v>4809.0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>9927.0</v>
+        <v>11251.0</v>
       </c>
       <c r="B298" t="n">
-        <v>4228.0</v>
+        <v>4787.0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>10238.0</v>
+        <v>11492.0</v>
       </c>
       <c r="B299" t="n">
-        <v>4304.0</v>
+        <v>4784.0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>8646.0</v>
+        <v>11647.0</v>
       </c>
       <c r="B300" t="n">
-        <v>4344.0</v>
+        <v>5039.0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>8125.0</v>
+        <v>10444.0</v>
       </c>
       <c r="B301" t="n">
-        <v>4675.0</v>
+        <v>5236.0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>11151.0</v>
+        <v>12311.0</v>
       </c>
       <c r="B302" t="n">
-        <v>4649.0</v>
+        <v>5258.0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>9757.0</v>
+        <v>11349.0</v>
       </c>
       <c r="B303" t="n">
-        <v>4417.0</v>
+        <v>5029.0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>10144.0</v>
+        <v>11261.0</v>
       </c>
       <c r="B304" t="n">
-        <v>4424.0</v>
+        <v>5123.0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>8747.0</v>
+        <v>8802.0</v>
       </c>
       <c r="B305" t="n">
-        <v>4419.0</v>
+        <v>5218.0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>8898.0</v>
+        <v>8928.0</v>
       </c>
       <c r="B306" t="n">
-        <v>4570.0</v>
+        <v>5049.0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>7264.0</v>
+        <v>10323.0</v>
       </c>
       <c r="B307" t="n">
-        <v>4469.0</v>
+        <v>4759.0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>7250.0</v>
+        <v>9546.0</v>
       </c>
       <c r="B308" t="n">
-        <v>4350.0</v>
+        <v>4625.0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>8054.0</v>
+        <v>8223.0</v>
       </c>
       <c r="B309" t="n">
-        <v>4293.0</v>
+        <v>4244.0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>6833.0</v>
+        <v>7386.0</v>
       </c>
       <c r="B310" t="n">
-        <v>3760.0</v>
+        <v>4233.0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>6782.0</v>
+        <v>7284.0</v>
       </c>
       <c r="B311" t="n">
-        <v>3498.0</v>
+        <v>4058.0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>6809.0</v>
+        <v>7307.0</v>
       </c>
       <c r="B312" t="n">
-        <v>3281.0</v>
+        <v>3605.0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>6677.0</v>
+        <v>7164.0</v>
       </c>
       <c r="B313" t="n">
-        <v>3066.0</v>
+        <v>3366.0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>5211.0</v>
+        <v>7097.0</v>
       </c>
       <c r="B314" t="n">
-        <v>2964.0</v>
+        <v>3318.0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>5603.0</v>
+        <v>6796.0</v>
       </c>
       <c r="B315" t="n">
-        <v>3167.0</v>
+        <v>3379.0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>5007.0</v>
+        <v>6179.0</v>
       </c>
       <c r="B316" t="n">
-        <v>3200.0</v>
+        <v>3231.0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>5794.0</v>
+        <v>6112.0</v>
       </c>
       <c r="B317" t="n">
-        <v>2798.0</v>
+        <v>2952.0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>5302.0</v>
+        <v>5573.0</v>
       </c>
       <c r="B318" t="n">
-        <v>2574.0</v>
+        <v>2909.0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>5113.0</v>
+        <v>5524.0</v>
       </c>
       <c r="B319" t="n">
-        <v>2445.0</v>
+        <v>2647.0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>5337.0</v>
+        <v>5470.0</v>
       </c>
       <c r="B320" t="n">
-        <v>2353.0</v>
+        <v>2561.0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>4099.0</v>
+        <v>5279.0</v>
       </c>
       <c r="B321" t="n">
-        <v>2300.0</v>
+        <v>2553.0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>4517.0</v>
+        <v>5187.0</v>
       </c>
       <c r="B322" t="n">
-        <v>2293.0</v>
+        <v>2554.0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>5435.0</v>
+        <v>5452.0</v>
       </c>
       <c r="B323" t="n">
-        <v>2393.0</v>
+        <v>2382.0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>4861.0</v>
+        <v>4838.0</v>
       </c>
       <c r="B324" t="n">
-        <v>2256.0</v>
+        <v>2218.0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>4997.0</v>
+        <v>4974.0</v>
       </c>
       <c r="B325" t="n">
-        <v>2232.0</v>
+        <v>2400.0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>5086.0</v>
+        <v>5034.0</v>
       </c>
       <c r="B326" t="n">
-        <v>2242.0</v>
+        <v>2255.0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>5243.0</v>
+        <v>5065.0</v>
       </c>
       <c r="B327" t="n">
-        <v>2111.0</v>
+        <v>2238.0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>4133.0</v>
+        <v>5044.0</v>
       </c>
       <c r="B328" t="n">
-        <v>2196.0</v>
+        <v>2213.0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>4555.0</v>
+        <v>4897.0</v>
       </c>
       <c r="B329" t="n">
-        <v>2309.0</v>
+        <v>2177.0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>5435.0</v>
+        <v>5187.0</v>
       </c>
       <c r="B330" t="n">
-        <v>2244.0</v>
+        <v>2170.0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>4747.0</v>
+        <v>4572.0</v>
       </c>
       <c r="B331" t="n">
-        <v>2150.0</v>
+        <v>2112.0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>4835.0</v>
+        <v>4614.0</v>
       </c>
       <c r="B332" t="n">
-        <v>2199.0</v>
+        <v>2123.0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>5085.0</v>
+        <v>4688.0</v>
       </c>
       <c r="B333" t="n">
-        <v>2191.0</v>
+        <v>2075.0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>5199.0</v>
+        <v>4749.0</v>
       </c>
       <c r="B334" t="n">
-        <v>2141.0</v>
+        <v>1926.0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>4375.0</v>
+        <v>4715.0</v>
       </c>
       <c r="B335" t="n">
-        <v>2159.0</v>
+        <v>2042.0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>4430.0</v>
+        <v>4490.0</v>
       </c>
       <c r="B336" t="n">
-        <v>2279.0</v>
+        <v>2068.0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>4249.0</v>
+        <v>3501.0</v>
       </c>
       <c r="B337" t="n">
-        <v>2299.0</v>
+        <v>2049.0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>4002.0</v>
+        <v>3276.0</v>
       </c>
       <c r="B338" t="n">
-        <v>2152.0</v>
+        <v>1929.0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>3603.0</v>
+        <v>3040.0</v>
       </c>
       <c r="B339" t="n">
-        <v>2072.0</v>
+        <v>1795.0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>3397.0</v>
+        <v>2974.0</v>
       </c>
       <c r="B340" t="n">
-        <v>1866.0</v>
+        <v>1520.0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>3186.0</v>
+        <v>2790.0</v>
       </c>
       <c r="B341" t="n">
-        <v>1769.0</v>
+        <v>1358.0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>3024.0</v>
+        <v>3175.0</v>
       </c>
       <c r="B342" t="n">
-        <v>1555.0</v>
+        <v>1275.0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>2830.0</v>
+        <v>3025.0</v>
       </c>
       <c r="B343" t="n">
-        <v>1485.0</v>
+        <v>1203.0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>2819.0</v>
+        <v>2367.0</v>
       </c>
       <c r="B344" t="n">
-        <v>1413.0</v>
+        <v>1150.0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>2641.0</v>
+        <v>2374.0</v>
       </c>
       <c r="B345" t="n">
-        <v>1304.0</v>
+        <v>1170.0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>2675.0</v>
+        <v>2356.0</v>
       </c>
       <c r="B346" t="n">
-        <v>1250.0</v>
+        <v>1159.0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>2757.0</v>
+        <v>2283.0</v>
       </c>
       <c r="B347" t="n">
-        <v>1302.0</v>
+        <v>1010.0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2565.0</v>
+        <v>2215.0</v>
       </c>
       <c r="B348" t="n">
-        <v>1272.0</v>
+        <v>1001.0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>2615.0</v>
+        <v>2513.0</v>
       </c>
       <c r="B349" t="n">
-        <v>1175.0</v>
+        <v>896.0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>2609.0</v>
+        <v>2375.0</v>
       </c>
       <c r="B350" t="n">
-        <v>1191.0</v>
+        <v>916.0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>2490.0</v>
+        <v>2114.0</v>
       </c>
       <c r="B351" t="n">
-        <v>1167.0</v>
+        <v>918.0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>2565.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B352" t="n">
-        <v>1119.0</v>
+        <v>934.0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>2525.0</v>
+        <v>2063.0</v>
       </c>
       <c r="B353" t="n">
-        <v>1066.0</v>
+        <v>899.0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>2509.0</v>
+        <v>2068.0</v>
       </c>
       <c r="B354" t="n">
-        <v>1137.0</v>
+        <v>871.0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>2541.0</v>
+        <v>2085.0</v>
       </c>
       <c r="B355" t="n">
-        <v>1099.0</v>
+        <v>848.0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>2443.0</v>
+        <v>2338.0</v>
       </c>
       <c r="B356" t="n">
-        <v>1109.0</v>
+        <v>849.0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>2574.0</v>
+        <v>2326.0</v>
       </c>
       <c r="B357" t="n">
-        <v>1067.0</v>
+        <v>810.0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>2384.0</v>
+        <v>2072.0</v>
       </c>
       <c r="B358" t="n">
-        <v>1069.0</v>
+        <v>834.0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>2507.0</v>
+        <v>2053.0</v>
       </c>
       <c r="B359" t="n">
-        <v>1086.0</v>
+        <v>843.0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>2540.0</v>
+        <v>2074.0</v>
       </c>
       <c r="B360" t="n">
-        <v>1030.0</v>
+        <v>870.0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>2447.0</v>
+        <v>1974.0</v>
       </c>
       <c r="B361" t="n">
-        <v>1013.0</v>
+        <v>780.0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>2535.0</v>
+        <v>1928.0</v>
       </c>
       <c r="B362" t="n">
-        <v>1097.0</v>
+        <v>737.0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>2471.0</v>
+        <v>2058.0</v>
       </c>
       <c r="B363" t="n">
-        <v>1070.0</v>
+        <v>782.0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>2449.0</v>
+        <v>1968.0</v>
       </c>
       <c r="B364" t="n">
-        <v>1084.0</v>
+        <v>884.0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>2481.0</v>
+        <v>1730.0</v>
       </c>
       <c r="B365" t="n">
-        <v>1025.0</v>
+        <v>854.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/output/results1.xlsx
+++ b/src/output/results1.xlsx
@@ -346,618 +346,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>2769.0</v>
+        <v>2853.0</v>
       </c>
       <c r="B1" t="n">
-        <v>1843.0</v>
+        <v>1929.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3786.0</v>
+        <v>3773.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1373.0</v>
+        <v>1405.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3517.0</v>
+        <v>3505.0</v>
       </c>
       <c r="B3" t="n">
-        <v>1349.0</v>
+        <v>1320.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3250.0</v>
+        <v>3263.0</v>
       </c>
       <c r="B4" t="n">
-        <v>1338.0</v>
+        <v>1392.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3144.0</v>
+        <v>3178.0</v>
       </c>
       <c r="B5" t="n">
-        <v>1390.0</v>
+        <v>1474.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3692.0</v>
+        <v>3775.0</v>
       </c>
       <c r="B6" t="n">
-        <v>1424.0</v>
+        <v>1389.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3473.0</v>
+        <v>3343.0</v>
       </c>
       <c r="B7" t="n">
-        <v>1320.0</v>
+        <v>1261.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2788.0</v>
+        <v>2715.0</v>
       </c>
       <c r="B8" t="n">
-        <v>1309.0</v>
+        <v>1352.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2685.0</v>
+        <v>2658.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1348.0</v>
+        <v>1372.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2546.0</v>
+        <v>2601.0</v>
       </c>
       <c r="B10" t="n">
-        <v>1298.0</v>
+        <v>1333.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2599.0</v>
+        <v>2499.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1169.0</v>
+        <v>1203.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2558.0</v>
+        <v>2532.0</v>
       </c>
       <c r="B12" t="n">
-        <v>1150.0</v>
+        <v>1092.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2946.0</v>
+        <v>2949.0</v>
       </c>
       <c r="B13" t="n">
-        <v>1146.0</v>
+        <v>1121.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2724.0</v>
+        <v>2681.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1108.0</v>
+        <v>1005.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2506.0</v>
+        <v>2315.0</v>
       </c>
       <c r="B15" t="n">
-        <v>1116.0</v>
+        <v>1083.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2381.0</v>
+        <v>2311.0</v>
       </c>
       <c r="B16" t="n">
-        <v>1074.0</v>
+        <v>1031.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2346.0</v>
+        <v>2364.0</v>
       </c>
       <c r="B17" t="n">
-        <v>1099.0</v>
+        <v>1066.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2318.0</v>
+        <v>2347.0</v>
       </c>
       <c r="B18" t="n">
-        <v>977.0</v>
+        <v>1003.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2300.0</v>
+        <v>2332.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1035.0</v>
+        <v>950.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2731.0</v>
+        <v>2760.0</v>
       </c>
       <c r="B20" t="n">
-        <v>964.0</v>
+        <v>998.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2577.0</v>
+        <v>2606.0</v>
       </c>
       <c r="B21" t="n">
-        <v>932.0</v>
+        <v>946.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2298.0</v>
+        <v>2246.0</v>
       </c>
       <c r="B22" t="n">
-        <v>1005.0</v>
+        <v>954.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2316.0</v>
+        <v>2213.0</v>
       </c>
       <c r="B23" t="n">
-        <v>980.0</v>
+        <v>1008.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2232.0</v>
+        <v>2317.0</v>
       </c>
       <c r="B24" t="n">
-        <v>934.0</v>
+        <v>1002.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2299.0</v>
+        <v>2263.0</v>
       </c>
       <c r="B25" t="n">
-        <v>987.0</v>
+        <v>968.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2273.0</v>
+        <v>2367.0</v>
       </c>
       <c r="B26" t="n">
-        <v>978.0</v>
+        <v>928.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2577.0</v>
+        <v>2716.0</v>
       </c>
       <c r="B27" t="n">
-        <v>980.0</v>
+        <v>918.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2598.0</v>
+        <v>2622.0</v>
       </c>
       <c r="B28" t="n">
-        <v>966.0</v>
+        <v>921.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2383.0</v>
+        <v>2276.0</v>
       </c>
       <c r="B29" t="n">
-        <v>989.0</v>
+        <v>1022.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2242.0</v>
+        <v>2338.0</v>
       </c>
       <c r="B30" t="n">
-        <v>1008.0</v>
+        <v>1009.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2201.0</v>
+        <v>2348.0</v>
       </c>
       <c r="B31" t="n">
-        <v>971.0</v>
+        <v>1002.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3276.0</v>
+        <v>3283.0</v>
       </c>
       <c r="B32" t="n">
-        <v>933.0</v>
+        <v>1001.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3313.0</v>
+        <v>3353.0</v>
       </c>
       <c r="B33" t="n">
-        <v>922.0</v>
+        <v>959.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3327.0</v>
+        <v>3499.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1098.0</v>
+        <v>1106.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3065.0</v>
+        <v>3028.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1246.0</v>
+        <v>1278.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4469.0</v>
+        <v>4626.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1257.0</v>
+        <v>1278.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4492.0</v>
+        <v>4500.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1359.0</v>
+        <v>1447.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5110.0</v>
+        <v>5134.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1462.0</v>
+        <v>1619.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5665.0</v>
+        <v>5685.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1842.0</v>
+        <v>1843.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6118.0</v>
+        <v>6269.0</v>
       </c>
       <c r="B40" t="n">
-        <v>2026.0</v>
+        <v>2020.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6166.0</v>
+        <v>6254.0</v>
       </c>
       <c r="B41" t="n">
-        <v>2272.0</v>
+        <v>2199.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5718.0</v>
+        <v>5755.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2511.0</v>
+        <v>2530.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>7652.0</v>
+        <v>7921.0</v>
       </c>
       <c r="B43" t="n">
-        <v>2540.0</v>
+        <v>2625.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>7234.0</v>
+        <v>7299.0</v>
       </c>
       <c r="B44" t="n">
-        <v>2573.0</v>
+        <v>2613.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>8105.0</v>
+        <v>8073.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2939.0</v>
+        <v>3011.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>8752.0</v>
+        <v>8523.0</v>
       </c>
       <c r="B46" t="n">
-        <v>3140.0</v>
+        <v>3119.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9207.0</v>
+        <v>9386.0</v>
       </c>
       <c r="B47" t="n">
-        <v>3394.0</v>
+        <v>3451.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>9684.0</v>
+        <v>9704.0</v>
       </c>
       <c r="B48" t="n">
-        <v>3605.0</v>
+        <v>3702.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>8865.0</v>
+        <v>8730.0</v>
       </c>
       <c r="B49" t="n">
-        <v>3868.0</v>
+        <v>3975.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>11128.0</v>
+        <v>11199.0</v>
       </c>
       <c r="B50" t="n">
-        <v>3993.0</v>
+        <v>4057.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>10404.0</v>
+        <v>10467.0</v>
       </c>
       <c r="B51" t="n">
-        <v>4103.0</v>
+        <v>4112.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>11249.0</v>
+        <v>11312.0</v>
       </c>
       <c r="B52" t="n">
-        <v>4335.0</v>
+        <v>4193.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>12135.0</v>
+        <v>12142.0</v>
       </c>
       <c r="B53" t="n">
-        <v>4571.0</v>
+        <v>4711.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>12905.0</v>
+        <v>12909.0</v>
       </c>
       <c r="B54" t="n">
-        <v>4841.0</v>
+        <v>4861.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>13371.0</v>
+        <v>13359.0</v>
       </c>
       <c r="B55" t="n">
-        <v>5235.0</v>
+        <v>5198.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>12095.0</v>
+        <v>12272.0</v>
       </c>
       <c r="B56" t="n">
-        <v>5400.0</v>
+        <v>5545.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>15159.0</v>
+        <v>14746.0</v>
       </c>
       <c r="B57" t="n">
-        <v>5701.0</v>
+        <v>5672.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>13858.0</v>
+        <v>13729.0</v>
       </c>
       <c r="B58" t="n">
-        <v>5701.0</v>
+        <v>5555.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>14587.0</v>
+        <v>14838.0</v>
       </c>
       <c r="B59" t="n">
-        <v>5932.0</v>
+        <v>5935.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>15773.0</v>
+        <v>15807.0</v>
       </c>
       <c r="B60" t="n">
-        <v>6341.0</v>
+        <v>6251.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>16402.0</v>
+        <v>16275.0</v>
       </c>
       <c r="B61" t="n">
-        <v>6497.0</v>
+        <v>6681.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>17019.0</v>
+        <v>17236.0</v>
       </c>
       <c r="B62" t="n">
-        <v>6714.0</v>
+        <v>6783.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>15527.0</v>
+        <v>15386.0</v>
       </c>
       <c r="B63" t="n">
-        <v>7233.0</v>
+        <v>7271.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>18367.0</v>
+        <v>18099.0</v>
       </c>
       <c r="B64" t="n">
-        <v>7386.0</v>
+        <v>7309.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>16742.0</v>
+        <v>16793.0</v>
       </c>
       <c r="B65" t="n">
-        <v>7134.0</v>
+        <v>7043.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>17686.0</v>
+        <v>17423.0</v>
       </c>
       <c r="B66" t="n">
-        <v>7236.0</v>
+        <v>7400.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>18647.0</v>
+        <v>18376.0</v>
       </c>
       <c r="B67" t="n">
-        <v>7756.0</v>
+        <v>7790.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>19384.0</v>
+        <v>19039.0</v>
       </c>
       <c r="B68" t="n">
-        <v>8179.0</v>
+        <v>7742.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>20013.0</v>
+        <v>19805.0</v>
       </c>
       <c r="B69" t="n">
-        <v>8173.0</v>
+        <v>8096.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>17924.0</v>
+        <v>17902.0</v>
       </c>
       <c r="B70" t="n">
-        <v>8514.0</v>
+        <v>8323.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>20998.0</v>
+        <v>20581.0</v>
       </c>
       <c r="B71" t="n">
-        <v>8498.0</v>
+        <v>8434.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>18731.0</v>
+        <v>18632.0</v>
       </c>
       <c r="B72" t="n">
-        <v>8416.0</v>
+        <v>8236.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>19567.0</v>
+        <v>19075.0</v>
       </c>
       <c r="B73" t="n">
-        <v>8452.0</v>
+        <v>8309.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>20422.0</v>
+        <v>20014.0</v>
       </c>
       <c r="B74" t="n">
-        <v>8701.0</v>
+        <v>8602.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>20458.0</v>
+        <v>20452.0</v>
       </c>
       <c r="B75" t="n">
-        <v>8940.0</v>
+        <v>8651.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>21478.0</v>
+        <v>21127.0</v>
       </c>
       <c r="B76" t="n">
-        <v>8880.0</v>
+        <v>8887.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>19234.0</v>
+        <v>19210.0</v>
       </c>
       <c r="B77" t="n">
-        <v>9336.0</v>
+        <v>9125.0</v>
       </c>
     </row>
     <row r="78">
